--- a/algorithm.xlsx
+++ b/algorithm.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GL72M\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFF6105-2481-4ADC-9CE3-50171D388D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CD2CE3-8670-4E71-B69A-5FDC3E8B0DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="steps 1-3" sheetId="1" r:id="rId1"/>
+    <sheet name="step 4" sheetId="2" r:id="rId2"/>
+    <sheet name="steps 5-8" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="271">
   <si>
     <t>一</t>
   </si>
@@ -418,9 +420,6 @@
   </si>
   <si>
     <t>person</t>
-  </si>
-  <si>
-    <t>BRANCH</t>
   </si>
   <si>
     <t>老</t>
@@ -711,6 +710,159 @@
   </si>
   <si>
     <t>append the original char (郷) to the kanji (響) as TYPE (col L) = "VR" and add "crown tag"</t>
+  </si>
+  <si>
+    <t>move to step 4a</t>
+  </si>
+  <si>
+    <t>move to step 5</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>move to step 4b</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>move to step 4c</t>
+  </si>
+  <si>
+    <t>move to step 4d</t>
+  </si>
+  <si>
+    <t>4c</t>
+  </si>
+  <si>
+    <t>append kanji to a specific group within [group.list]</t>
+  </si>
+  <si>
+    <t>append the original kanji to the kanji with the same ON as TYPE (col L) = "VR"</t>
+  </si>
+  <si>
+    <t>4d</t>
+  </si>
+  <si>
+    <t>append the original kanji to the kanji with the same ON and the highest SRL as TYPE (col L) = "VR"</t>
+  </si>
+  <si>
+    <t>check if 精 ON セイ is same as the ON of some of the kanji found in the previous step</t>
+  </si>
+  <si>
+    <t>all kanji found in the previous step have ON either セイ or セイ、ジョウ</t>
+  </si>
+  <si>
+    <t>青 is in kanji 清 and 請 and 情 and 静 and 龶 is in the kanji 青</t>
+  </si>
+  <si>
+    <t>青 清 請 情 静 = 5 kanji chars</t>
+  </si>
+  <si>
+    <t>append the kanji 精 to the kanji 青 (SRL = 5) as TYPE (col L) = "VR"</t>
+  </si>
+  <si>
+    <t>check if kanji COMP (col B-G) are in (col B-G)</t>
+  </si>
+  <si>
+    <t>check if kanji ON (col H) = other kanji ON (col H)</t>
+  </si>
+  <si>
+    <t>check the original kanji SRL level (col K) ... is it higher than SRL level of the other kanji?</t>
+  </si>
+  <si>
+    <t>check the original kanji SRL level (col K) ... is it higher than SRL level of all other kanji?</t>
+  </si>
+  <si>
+    <t>check if 米 or 青 or 龶 or 冃 (line 15) are in (col B-G)</t>
+  </si>
+  <si>
+    <t>how many chars have the same ON (col H)?</t>
+  </si>
+  <si>
+    <t>精 SRL level is 1 (col K) ... is it higher than SRL level of the other 5 kanji?</t>
+  </si>
+  <si>
+    <t>check if 耂 and 子 (line 23) are in (col B-G)</t>
+  </si>
+  <si>
+    <t>check if 孝 ON コウ is same as the ON of some of the kanji found in the previous step</t>
+  </si>
+  <si>
+    <t>耂 is in kanji 者 and 老 and 考 ... 子 is in the kanji 孫 and 孫</t>
+  </si>
+  <si>
+    <t>only 1 kanji (考) has the same ON コウ</t>
+  </si>
+  <si>
+    <t>孝 SRL level is 1 (col K) ... is it higher than SRL level of 考?</t>
+  </si>
+  <si>
+    <t>append the kanji 考 to the kanji 考 (SRL = 2) as TYPE (col L) = "VR"</t>
+  </si>
+  <si>
+    <t>check if COMP (col B-D) is in [stem.list]</t>
+  </si>
+  <si>
+    <t>append the kanji to the specific group within [group.list]</t>
+  </si>
+  <si>
+    <t>move to step 6</t>
+  </si>
+  <si>
+    <t>move to step 6a</t>
+  </si>
+  <si>
+    <t>move to step 7</t>
+  </si>
+  <si>
+    <t>6a</t>
+  </si>
+  <si>
+    <t>if step 3a was false</t>
+  </si>
+  <si>
+    <t>how many kanji were found to have the same component as the original kanji?</t>
+  </si>
+  <si>
+    <t>append the original kanji as TYPE (col L) = "VISUAL"</t>
+  </si>
+  <si>
+    <t>append the original kanji to the [visual.list]</t>
+  </si>
+  <si>
+    <t>if step 4a was false</t>
+  </si>
+  <si>
+    <t>move to step 8</t>
+  </si>
+  <si>
+    <t>move to step 7a</t>
+  </si>
+  <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>append the kanji to the [other.list]</t>
+  </si>
+  <si>
+    <t>check if 聿 or 日 is in [stem.list]</t>
+  </si>
+  <si>
+    <t>append the kanji to the 日 group</t>
+  </si>
+  <si>
+    <t>if step 3a was false for kanji 争</t>
+  </si>
+  <si>
+    <t>append the kanji 争 to the kanji 静 as TYPE (col L) = "VISUAL"</t>
+  </si>
+  <si>
+    <t>if step 4a was false for kanji 老</t>
+  </si>
+  <si>
+    <t>append the kanji  老 to the kanji 者 (because it has the stem 日) as TYPE (col L) = "VISUAL"</t>
   </si>
 </sst>
 </file>
@@ -888,7 +1040,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1070,11 +1222,516 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFC00000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFC00000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFC00000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFC00000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFC00000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFC00000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B050"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF92D050"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF92D050"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF92D050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF92D050"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF92D050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF92D050"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF92D050"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF92D050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF92D050"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF92D050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF92D050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF92D050"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF92D050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF92D050"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF92D050"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF92D050"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF92D050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF92D050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF92D050"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF92D050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF66FF33"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF66FF33"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF66FF33"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF66FF33"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF66FF33"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF66FF33"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF66FF33"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF66FF33"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF66FF33"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF66FF33"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF66FF33"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF66FF33"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF66FF33"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF66FF33"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF66FF33"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF66FF33"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF66FF33"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF66FF33"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF66FF33"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF66FF33"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1094,9 +1751,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1112,9 +1766,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1146,13 +1797,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1191,94 +1836,381 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1286,6 +2218,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF33"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1562,8 +2499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,26 +2512,27 @@
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="15" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" style="15" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="15" customWidth="1"/>
-    <col min="18" max="18" width="55.7109375" style="15" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" style="15" customWidth="1"/>
-    <col min="20" max="21" width="20.7109375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="13" customWidth="1"/>
+    <col min="16" max="16" width="50.7109375" style="13" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="13" customWidth="1"/>
+    <col min="18" max="18" width="55.7109375" style="13" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" style="13" customWidth="1"/>
+    <col min="20" max="21" width="20.7109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="6" t="s">
         <v>16</v>
       </c>
@@ -1614,22 +2552,22 @@
         <v>21</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="U1" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1660,23 +2598,23 @@
       <c r="M2" s="5">
         <v>10.8</v>
       </c>
-      <c r="O2" s="65">
-        <v>1</v>
-      </c>
-      <c r="P2" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q2" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="T2" s="19" t="s">
+      <c r="O2" s="56">
+        <v>1</v>
+      </c>
+      <c r="P2" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q2" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="T2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="19" t="s">
-        <v>189</v>
+      <c r="U2" s="17" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1707,54 +2645,54 @@
       <c r="M3" s="5">
         <v>128.30000000000001</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="20" t="b">
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="R3" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="T3" s="19" t="s">
+      <c r="R3" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="T3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="19" t="s">
-        <v>189</v>
+      <c r="U3" s="17" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="54">
         <v>5</v>
       </c>
-      <c r="L4" s="63" t="s">
+      <c r="L4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="64">
+      <c r="M4" s="55">
         <v>120.7</v>
       </c>
-      <c r="T4" s="69" t="s">
+      <c r="T4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="70" t="s">
-        <v>189</v>
+      <c r="U4" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1767,18 +2705,18 @@
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1791,23 +2729,23 @@
       <c r="M5" s="5">
         <v>1076.7533333333333</v>
       </c>
-      <c r="O5" s="56">
+      <c r="O5" s="47">
         <v>2</v>
       </c>
-      <c r="P5" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q5" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="U5" s="19" t="s">
-        <v>189</v>
+      <c r="P5" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q5" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="U5" s="17" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
@@ -1820,18 +2758,18 @@
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="3" t="s">
         <v>31</v>
       </c>
@@ -1844,14 +2782,14 @@
       <c r="M6" s="5">
         <v>1090.23</v>
       </c>
-      <c r="Q6" s="20" t="b">
+      <c r="Q6" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="T6" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="U6" s="19" t="s">
-        <v>189</v>
+      <c r="T6" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="U6" s="17" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
@@ -1867,7 +2805,7 @@
       <c r="H7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="2" t="s">
         <v>35</v>
       </c>
@@ -1880,11 +2818,11 @@
       <c r="M7" s="5">
         <v>1578.7566666666667</v>
       </c>
-      <c r="T7" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="U7" s="19" t="s">
-        <v>189</v>
+      <c r="T7" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="U7" s="17" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
@@ -1919,23 +2857,23 @@
       <c r="M8" s="5">
         <v>1407.6666666666667</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="14">
         <v>3</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q8" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="Q8" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="T8" s="19" t="s">
+      <c r="T8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="19" t="s">
-        <v>189</v>
+      <c r="U8" s="17" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
@@ -1970,17 +2908,17 @@
       <c r="M9" s="5">
         <v>1306.9933333333333</v>
       </c>
-      <c r="Q9" s="20" t="b">
+      <c r="Q9" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="R9" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="T9" s="19" t="s">
+      <c r="R9" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="T9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="19" t="s">
-        <v>189</v>
+      <c r="U9" s="17" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
@@ -2015,12 +2953,12 @@
       <c r="M10" s="5">
         <v>520.4</v>
       </c>
-      <c r="R10" s="19"/>
-      <c r="T10" s="19" t="s">
+      <c r="R10" s="17"/>
+      <c r="T10" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="U10" s="19" t="s">
-        <v>190</v>
+      <c r="U10" s="17" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
@@ -2033,10 +2971,10 @@
       <c r="C11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="1"/>
@@ -2059,23 +2997,23 @@
       <c r="M11" s="5">
         <v>1399.1</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="O11" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="P11" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="P11" s="19" t="s">
+      <c r="Q11" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="Q11" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="T11" s="19" t="s">
+      <c r="T11" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="U11" s="19" t="s">
-        <v>190</v>
+      <c r="U11" s="17" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
@@ -2110,17 +3048,17 @@
       <c r="M12" s="5">
         <v>502.5</v>
       </c>
-      <c r="Q12" s="20" t="b">
+      <c r="Q12" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="R12" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="T12" s="19" t="s">
+      <c r="R12" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="T12" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="U12" s="19" t="s">
-        <v>190</v>
+      <c r="U12" s="17" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
@@ -2133,10 +3071,10 @@
       <c r="C13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F13" s="1"/>
@@ -2159,11 +3097,11 @@
       <c r="M13" s="5">
         <v>692.1</v>
       </c>
-      <c r="T13" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="U13" s="19" t="s">
-        <v>190</v>
+      <c r="T13" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="U13" s="17" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
@@ -2176,10 +3114,10 @@
       <c r="C14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F14" s="1"/>
@@ -2200,23 +3138,23 @@
       <c r="M14" s="5">
         <v>919.7</v>
       </c>
-      <c r="O14" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="P14" s="19" t="s">
+      <c r="O14" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>1</v>
+      </c>
+      <c r="R14" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="Q14" s="19">
-        <v>1</v>
-      </c>
-      <c r="R14" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="T14" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="U14" s="19" t="s">
-        <v>190</v>
+      <c r="T14" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="U14" s="17" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
@@ -2229,10 +3167,10 @@
       <c r="C15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F15" s="1"/>
@@ -2240,7 +3178,7 @@
       <c r="H15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="3" t="s">
         <v>73</v>
       </c>
@@ -2253,13 +3191,13 @@
       <c r="M15" s="5">
         <v>655.1</v>
       </c>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="22"/>
-      <c r="T15" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="U15" s="19" t="s">
-        <v>191</v>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="65"/>
+      <c r="T15" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="U15" s="17" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
@@ -2272,10 +3210,10 @@
       <c r="C16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F16" s="1"/>
@@ -2298,17 +3236,17 @@
       <c r="M16" s="5">
         <v>177.1</v>
       </c>
-      <c r="Q16" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="R16" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="T16" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="U16" s="19" t="s">
-        <v>191</v>
+      <c r="Q16" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="R16" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="U16" s="17" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
@@ -2321,10 +3259,10 @@
       <c r="C17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F17" s="1"/>
@@ -2347,19 +3285,19 @@
       <c r="M17" s="5">
         <v>712.1</v>
       </c>
-      <c r="R17" s="22"/>
-      <c r="T17" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="U17" s="19" t="s">
-        <v>191</v>
+      <c r="R17" s="65"/>
+      <c r="T17" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="U17" s="17" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2368,7 +3306,7 @@
       <c r="D18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
@@ -2389,40 +3327,40 @@
       <c r="M18" s="5">
         <v>573</v>
       </c>
-      <c r="R18" s="22"/>
-      <c r="T18" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="U18" s="19" t="s">
-        <v>191</v>
+      <c r="R18" s="65"/>
+      <c r="T18" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="U18" s="17" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="I19" s="51" t="s">
+      <c r="I19" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="J19" s="52" t="s">
+      <c r="J19" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="K19" s="53">
+      <c r="K19" s="44">
         <v>5</v>
       </c>
-      <c r="L19" s="54" t="s">
+      <c r="L19" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="M19" s="55">
+      <c r="M19" s="46">
         <v>10.4</v>
       </c>
     </row>
@@ -2452,34 +3390,34 @@
       <c r="K20" s="3">
         <v>1</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>131</v>
+      <c r="L20" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="M20" s="5">
         <v>49.8</v>
       </c>
-      <c r="O20" s="35">
+      <c r="O20" s="31">
         <v>3</v>
       </c>
-      <c r="P20" s="36" t="s">
+      <c r="P20" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q20" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="Q20" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="R20" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="T20" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="U20" s="16" t="s">
-        <v>188</v>
+      <c r="T20" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="U20" s="14" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>127</v>
@@ -2492,13 +3430,13 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="K21" s="3">
         <v>1</v>
@@ -2509,32 +3447,32 @@
       <c r="M21" s="5">
         <v>714.9</v>
       </c>
-      <c r="O21" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="P21" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q21" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="R21" s="42"/>
-      <c r="T21" s="71" t="s">
+      <c r="O21" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="P21" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q21" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" s="36"/>
+      <c r="T21" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="U21" s="72" t="s">
-        <v>198</v>
+      <c r="U21" s="63" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>137</v>
+      <c r="C22" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2544,13 +3482,13 @@
         <v>106</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="K22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>88</v>
@@ -2558,45 +3496,45 @@
       <c r="M22" s="5">
         <v>164.8</v>
       </c>
-      <c r="O22" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="P22" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q22" s="40">
-        <v>1</v>
-      </c>
-      <c r="R22" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="T22" s="21" t="s">
+      <c r="O22" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="P22" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>1</v>
+      </c>
+      <c r="R22" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="T22" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="U22" s="19" t="s">
-        <v>199</v>
+      <c r="U22" s="17" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+        <v>140</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I23" s="12"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K23" s="3">
         <v>1</v>
@@ -2607,152 +3545,146 @@
       <c r="M23" s="5">
         <v>1376.6</v>
       </c>
-      <c r="O23" s="44"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="43"/>
-      <c r="T23" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="U23" s="19" t="s">
-        <v>200</v>
+      <c r="O23" s="37"/>
+      <c r="R23" s="66"/>
+      <c r="T23" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="U23" s="17" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="25" t="s">
         <v>90</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="I24" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="J24" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="K24" s="26">
-        <v>1</v>
-      </c>
-      <c r="L24" s="26" t="s">
+      <c r="K24" s="23">
+        <v>1</v>
+      </c>
+      <c r="L24" s="23" t="s">
         <v>94</v>
       </c>
       <c r="M24" s="5">
         <v>336.06</v>
       </c>
-      <c r="O24" s="44"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="46" t="s">
+      <c r="O24" s="37"/>
+      <c r="R24" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="T24" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M25" s="29">
+        <v>674.61333333333334</v>
+      </c>
+      <c r="O25" s="37"/>
+      <c r="R25" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="T24" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="U24" s="19" t="s">
+      <c r="T25" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="U25" s="17" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="27" t="s">
+    <row r="26" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="K25" s="25">
-        <v>1</v>
-      </c>
-      <c r="L25" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="M25" s="33">
-        <v>674.61333333333334</v>
-      </c>
-      <c r="O25" s="44"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="T25" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="U25" s="19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24" t="s">
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="26" t="s">
+      <c r="I26" s="28"/>
+      <c r="J26" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="K26" s="26">
-        <v>1</v>
-      </c>
-      <c r="L26" s="26" t="s">
+      <c r="K26" s="23">
+        <v>1</v>
+      </c>
+      <c r="L26" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="34">
+      <c r="M26" s="30">
         <v>1029.7066666666665</v>
       </c>
-      <c r="O26" s="47"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="49"/>
-      <c r="T26" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="U26" s="19" t="s">
-        <v>143</v>
+      <c r="O26" s="39"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="67"/>
+      <c r="T26" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="U26" s="17" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
@@ -2787,11 +3719,11 @@
       <c r="M27" s="5">
         <v>658.19333333333338</v>
       </c>
-      <c r="T27" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="U27" s="19" t="s">
-        <v>143</v>
+      <c r="T27" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="U27" s="17" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
@@ -2837,10 +3769,10 @@
       <c r="C29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>117</v>
       </c>
       <c r="F29" s="1"/>
@@ -2848,7 +3780,7 @@
       <c r="H29" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I29" s="9"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="3" t="s">
         <v>119</v>
       </c>
@@ -2897,16 +3829,16 @@
     </row>
     <row r="31" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K31" s="3">
         <v>5</v>
@@ -2920,28 +3852,28 @@
     </row>
     <row r="32" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="J32" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K32" s="3">
         <v>5</v>
@@ -2955,22 +3887,22 @@
     </row>
     <row r="33" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
       <c r="H33" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I33" s="9"/>
+        <v>165</v>
+      </c>
+      <c r="I33" s="8"/>
       <c r="J33" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K33" s="3">
         <v>5</v>
@@ -2984,7 +3916,7 @@
     </row>
     <row r="34" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2993,19 +3925,19 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="K34" s="3">
         <v>1</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M34" s="5">
         <v>1075.0999999999999</v>
@@ -3013,30 +3945,30 @@
     </row>
     <row r="35" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="K35" s="3">
         <v>1</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M35" s="5">
         <v>64</v>
@@ -3044,32 +3976,32 @@
     </row>
     <row r="36" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="K36" s="3">
         <v>1</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M36" s="5">
         <v>289.7</v>
@@ -3086,4 +4018,2906 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994174ED-B0DF-47A2-8D97-1ED6C99BD01D}">
+  <dimension ref="A1:R36"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="13" customWidth="1"/>
+    <col min="16" max="16" width="50.7109375" style="13" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="13" customWidth="1"/>
+    <col min="18" max="18" width="55.7109375" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="O2" s="14">
+        <v>4</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q2" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="5">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="70">
+        <v>5</v>
+      </c>
+      <c r="L4" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="71">
+        <v>120.7</v>
+      </c>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+    </row>
+    <row r="5" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1076.7533333333333</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q5" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1090.23</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="3">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1578.7566666666667</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="R7" s="17"/>
+    </row>
+    <row r="8" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1407.6666666666667</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>1</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1306.9933333333333</v>
+      </c>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+    </row>
+    <row r="10" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="5">
+        <v>520.4</v>
+      </c>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="3">
+        <v>5</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1399.1</v>
+      </c>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="R11" s="17"/>
+    </row>
+    <row r="12" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="3">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="5">
+        <v>502.5</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="P12" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q12" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="3">
+        <v>4</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="5">
+        <v>692.1</v>
+      </c>
+      <c r="O13" s="17"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" s="65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="77"/>
+      <c r="J14" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="79">
+        <v>3</v>
+      </c>
+      <c r="L14" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="80">
+        <v>919.7</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="R14" s="65"/>
+    </row>
+    <row r="15" spans="1:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="84"/>
+      <c r="J15" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="85">
+        <v>1</v>
+      </c>
+      <c r="L15" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="86">
+        <v>655.1</v>
+      </c>
+      <c r="O15" s="17"/>
+      <c r="P15" s="20"/>
+      <c r="R15" s="17"/>
+    </row>
+    <row r="16" spans="1:18" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="3">
+        <v>4</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="5">
+        <v>177.1</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="P16" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q16" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="5">
+        <v>712.1</v>
+      </c>
+      <c r="O17" s="17"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" s="65" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="5">
+        <v>573</v>
+      </c>
+      <c r="P18" s="76"/>
+      <c r="R18" s="65"/>
+    </row>
+    <row r="19" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="70">
+        <v>5</v>
+      </c>
+      <c r="L19" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="71">
+        <v>10.4</v>
+      </c>
+      <c r="R19" s="76"/>
+    </row>
+    <row r="20" spans="1:18" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="5">
+        <v>49.8</v>
+      </c>
+      <c r="O20" s="87">
+        <v>4</v>
+      </c>
+      <c r="P20" s="88" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q20" s="89" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" s="90" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21" s="5">
+        <v>714.9</v>
+      </c>
+      <c r="O21" s="91"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="93"/>
+      <c r="R21" s="94"/>
+    </row>
+    <row r="22" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" s="5">
+        <v>164.8</v>
+      </c>
+      <c r="O22" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="P22" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q22" s="97" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" s="98" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="106" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="106" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="108"/>
+      <c r="J23" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="K23" s="109">
+        <v>1</v>
+      </c>
+      <c r="L23" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="110">
+        <v>1376.6</v>
+      </c>
+      <c r="O23" s="91"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="98"/>
+    </row>
+    <row r="24" spans="1:18" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="70">
+        <v>1</v>
+      </c>
+      <c r="L24" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="M24" s="5">
+        <v>336.06</v>
+      </c>
+      <c r="O24" s="91"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="94"/>
+    </row>
+    <row r="25" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="I25" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="70">
+        <v>1</v>
+      </c>
+      <c r="L25" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="M25" s="71">
+        <v>674.61333333333334</v>
+      </c>
+      <c r="O25" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="P25" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q25" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="R25" s="100" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="75"/>
+      <c r="J26" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="70">
+        <v>1</v>
+      </c>
+      <c r="L26" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="71">
+        <v>1029.7066666666665</v>
+      </c>
+      <c r="O26" s="91"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="94"/>
+    </row>
+    <row r="27" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M27" s="5">
+        <v>658.19333333333338</v>
+      </c>
+      <c r="O27" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="P27" s="96" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q27" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27" s="98" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M28" s="5">
+        <v>116.44000000000001</v>
+      </c>
+      <c r="O28" s="101"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="103"/>
+      <c r="R28" s="104"/>
+    </row>
+    <row r="29" spans="1:18" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M29" s="5">
+        <v>660.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M30" s="5">
+        <v>681</v>
+      </c>
+      <c r="O30" s="111">
+        <v>4</v>
+      </c>
+      <c r="P30" s="112" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q30" s="113" t="b">
+        <v>1</v>
+      </c>
+      <c r="R30" s="114" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K31" s="3">
+        <v>5</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M31" s="5">
+        <v>42.1</v>
+      </c>
+      <c r="O31" s="115" t="s">
+        <v>222</v>
+      </c>
+      <c r="P31" s="96" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q31" s="97" t="b">
+        <v>1</v>
+      </c>
+      <c r="R31" s="116" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K32" s="3">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="5">
+        <v>1293.5999999999999</v>
+      </c>
+      <c r="O32" s="117"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="118"/>
+    </row>
+    <row r="33" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="H33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" s="3">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="5">
+        <v>1524.3</v>
+      </c>
+      <c r="O33" s="115" t="s">
+        <v>224</v>
+      </c>
+      <c r="P33" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q33" s="92">
+        <v>1</v>
+      </c>
+      <c r="R33" s="116" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M34" s="5">
+        <v>1075.0999999999999</v>
+      </c>
+      <c r="O34" s="115" t="s">
+        <v>227</v>
+      </c>
+      <c r="P34" s="96" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q34" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="R34" s="119" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M35" s="5">
+        <v>64</v>
+      </c>
+      <c r="O35" s="120"/>
+      <c r="P35" s="121"/>
+      <c r="Q35" s="122"/>
+      <c r="R35" s="123"/>
+    </row>
+    <row r="36" spans="1:18" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M36" s="5">
+        <v>289.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="R17:R18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1162D654-4636-45B3-9EF9-E9513354706C}">
+  <dimension ref="A1:S36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="13" customWidth="1"/>
+    <col min="16" max="16" width="50.7109375" style="13" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="13" customWidth="1"/>
+    <col min="18" max="18" width="55.7109375" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="O2" s="14">
+        <v>5</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q2" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="5">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="70">
+        <v>5</v>
+      </c>
+      <c r="L4" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="71">
+        <v>120.7</v>
+      </c>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+    </row>
+    <row r="5" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1076.7533333333333</v>
+      </c>
+      <c r="O5" s="14">
+        <v>6</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q5" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1090.23</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="3">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1578.7566666666667</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+    </row>
+    <row r="8" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1407.6666666666667</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="P8" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>1</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1306.9933333333333</v>
+      </c>
+      <c r="O9" s="17"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="5">
+        <v>520.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="3">
+        <v>5</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1399.1</v>
+      </c>
+      <c r="O11" s="14">
+        <v>7</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q11" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="3">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="5">
+        <v>502.5</v>
+      </c>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="3">
+        <v>4</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="5">
+        <v>692.1</v>
+      </c>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+    </row>
+    <row r="14" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="68"/>
+      <c r="J14" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="70">
+        <v>3</v>
+      </c>
+      <c r="L14" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="71">
+        <v>919.7</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="P14" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>1</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="75"/>
+      <c r="J15" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="70">
+        <v>1</v>
+      </c>
+      <c r="L15" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="71">
+        <v>655.1</v>
+      </c>
+      <c r="O15" s="17"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="3">
+        <v>4</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="5">
+        <v>177.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="5">
+        <v>712.1</v>
+      </c>
+      <c r="O17" s="14">
+        <v>8</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="134" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="135" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="136" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="136" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="137"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="136" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="138" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="138">
+        <v>1</v>
+      </c>
+      <c r="L18" s="138" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="139">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="70">
+        <v>5</v>
+      </c>
+      <c r="L19" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="71">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="5">
+        <v>49.8</v>
+      </c>
+      <c r="O20" s="130">
+        <v>5</v>
+      </c>
+      <c r="P20" s="131" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q20" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" s="133" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="152" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="153" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="153" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" s="154" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="154">
+        <v>1</v>
+      </c>
+      <c r="L21" s="154" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21" s="155">
+        <v>714.9</v>
+      </c>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+    </row>
+    <row r="22" spans="1:19" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" s="5">
+        <v>164.8</v>
+      </c>
+      <c r="O22" s="140">
+        <v>6</v>
+      </c>
+      <c r="P22" s="141" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q22" s="142" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" s="143"/>
+    </row>
+    <row r="23" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="124"/>
+      <c r="J23" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="K23" s="70">
+        <v>1</v>
+      </c>
+      <c r="L23" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="71">
+        <v>1376.6</v>
+      </c>
+      <c r="O23" s="144"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="145"/>
+    </row>
+    <row r="24" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="70">
+        <v>1</v>
+      </c>
+      <c r="L24" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="M24" s="5">
+        <v>336.06</v>
+      </c>
+      <c r="O24" s="146" t="s">
+        <v>255</v>
+      </c>
+      <c r="P24" s="96" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q24" s="92">
+        <v>1</v>
+      </c>
+      <c r="R24" s="145" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="I25" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="70">
+        <v>1</v>
+      </c>
+      <c r="L25" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="M25" s="71">
+        <v>674.61333333333334</v>
+      </c>
+      <c r="O25" s="147"/>
+      <c r="P25" s="148"/>
+      <c r="Q25" s="149"/>
+      <c r="R25" s="150"/>
+    </row>
+    <row r="26" spans="1:19" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="75"/>
+      <c r="J26" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="70">
+        <v>1</v>
+      </c>
+      <c r="L26" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="71">
+        <v>1029.7066666666665</v>
+      </c>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+    </row>
+    <row r="27" spans="1:19" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M27" s="5">
+        <v>658.19333333333338</v>
+      </c>
+      <c r="O27" s="156">
+        <v>7</v>
+      </c>
+      <c r="P27" s="157" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q27" s="158" t="b">
+        <v>1</v>
+      </c>
+      <c r="R27" s="159"/>
+    </row>
+    <row r="28" spans="1:19" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="127" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="127" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="127" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" s="128" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" s="128">
+        <v>1</v>
+      </c>
+      <c r="L28" s="128" t="s">
+        <v>94</v>
+      </c>
+      <c r="M28" s="129">
+        <v>116.44000000000001</v>
+      </c>
+      <c r="O28" s="160"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="161"/>
+    </row>
+    <row r="29" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M29" s="5">
+        <v>660.9</v>
+      </c>
+      <c r="O29" s="162" t="s">
+        <v>263</v>
+      </c>
+      <c r="P29" s="96" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q29" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="R29" s="163" t="s">
+        <v>270</v>
+      </c>
+      <c r="S29" s="13"/>
+    </row>
+    <row r="30" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M30" s="5">
+        <v>681</v>
+      </c>
+      <c r="O30" s="164"/>
+      <c r="P30" s="165"/>
+      <c r="Q30" s="166"/>
+      <c r="R30" s="167"/>
+    </row>
+    <row r="31" spans="1:19" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K31" s="3">
+        <v>5</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M31" s="5">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K32" s="3">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="5">
+        <v>1293.5999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="H33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" s="3">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="5">
+        <v>1524.3</v>
+      </c>
+      <c r="P33" s="151"/>
+    </row>
+    <row r="34" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M34" s="5">
+        <v>1075.0999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M35" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M36" s="5">
+        <v>289.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="R29:R30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>